--- a/xlsx/古典自由主义_intext.xlsx
+++ b/xlsx/古典自由主义_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>古典自由主义</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_古典自由主义</t>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A</t>
@@ -101,55 +101,52 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府自由主義</t>
+    <t>无政府自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族自由主義</t>
+    <t>民族自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
@@ -161,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
+    <t>亚当·斯密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E7%A6%8F%E6%A0%BC%E6%A3%AE</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%82%91%E4%BD%9B%E9%81%9C</t>
   </si>
   <si>
-    <t>湯瑪斯·傑佛遜</t>
+    <t>汤玛斯·杰佛逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
   </si>
   <si>
-    <t>湯瑪斯·潘恩</t>
+    <t>汤玛斯·潘恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -197,13 +194,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E7%88%BE%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努爾·康德</t>
+    <t>伊曼努尔·康德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%B7%B4%E6%96%AF%E5%A4%8F</t>
@@ -257,13 +254,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特蘭·羅素</t>
+    <t>伯特兰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
@@ -281,13 +278,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·羅爾斯</t>
+    <t>约翰·罗尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A5%E5%A4%8D</t>
@@ -317,19 +314,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%87%AA%E7%94%B1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際自由聯盟</t>
+    <t>国际自由联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E6%94%B9%E9%9D%A9%E9%BB%A8</t>
   </si>
   <si>
-    <t>歐洲自由民主改革黨</t>
+    <t>欧洲自由民主改革党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲自由民主聯盟</t>
+    <t>欧洲自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Liberalism</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -353,37 +350,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>自由主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>世襲制度</t>
+    <t>世袭制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E6%89%80%E6%9C%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>自我所有權</t>
+    <t>自我所有权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB</t>
@@ -473,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會自由主義</t>
+    <t>社会自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
@@ -491,9 +485,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亚当·斯密</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E4%BC%AF%E5%85%8B</t>
   </si>
   <si>
@@ -563,25 +554,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AF%8C%E8%AB%96</t>
   </si>
   <si>
-    <t>國富論</t>
+    <t>国富论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E4%BF%9D%E8%AD%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>貿易保護主義</t>
+    <t>贸易保护主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
@@ -593,25 +584,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>约翰·洛克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努尔·康德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6</t>
   </si>
   <si>
-    <t>代議制</t>
+    <t>代议制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -635,19 +620,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>選舉權</t>
+    <t>选举权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8A%A8%E4%B8%BB%E4%B9%89</t>
@@ -671,15 +656,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>社会自由主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>新自由主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
@@ -689,19 +668,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E8%B3%A6</t>
   </si>
   <si>
-    <t>稅賦</t>
+    <t>税赋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -719,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
@@ -743,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%81%94%E6%9E%97</t>
   </si>
   <si>
-    <t>史達林</t>
+    <t>史达林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>俄國共產黨</t>
+    <t>俄国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -761,19 +740,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%88%97%E4%B8%BB%E4%B9%89</t>
@@ -791,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
+    <t>无政府主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counter-economics</t>
@@ -809,13 +788,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A</t>
@@ -827,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
@@ -839,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%BA%A6%E8%87%AA%E7%94%B1%E5%8E%9F%E5%88%99</t>
@@ -851,25 +830,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96%E7%9A%84%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>方法論的個人主義</t>
+    <t>方法论的个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>互不侵犯原則</t>
+    <t>互不侵犯原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -893,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E5%83%B9%E5%80%BC%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>主觀價值理論</t>
+    <t>主观价值理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E8%87%AA%E6%B2%BB</t>
@@ -911,55 +890,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>小政府主義</t>
+    <t>小政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府資本主義</t>
+    <t>无政府资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志保守主義</t>
+    <t>自由意志保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>左派自由意志主義</t>
+    <t>左派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右派自由意志主義</t>
+    <t>右派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由市場自由意志主義</t>
+    <t>自由市场自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>喬治自由意志主義</t>
+    <t>乔治自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%89%B9%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
@@ -971,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%A7%86%C2%B7%E5%96%AC%E5%A7%86%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>諾姆·喬姆斯基</t>
+    <t>诺姆·乔姆斯基</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joseph_D%C3%A9jacque</t>
@@ -983,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E4%B9%94%E6%B2%BB</t>
@@ -1001,43 +980,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%8C%B2%E5%88%A9%E7%89%B9</t>
   </si>
   <si>
-    <t>亨利·赫茲利特</t>
+    <t>亨利·赫兹利特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF-%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E9%9C%8D%E6%99%AE</t>
   </si>
   <si>
-    <t>漢斯-赫爾曼·霍普</t>
+    <t>汉斯-赫尔曼·霍普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%96%80%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>卡爾·門格爾</t>
+    <t>卡尔·门格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E4%BF%9D%E7%BE%85</t>
   </si>
   <si>
-    <t>榮·保羅</t>
+    <t>荣·保罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E8%98%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>艾茵·蘭德</t>
+    <t>艾茵·兰德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9F%83%E6%9E%97%C2%B7%E7%BE%85%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>盧埃林·羅克維爾</t>
+    <t>卢埃林·罗克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BE%85%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
   </si>
   <si>
-    <t>穆瑞·羅斯巴德</t>
+    <t>穆瑞·罗斯巴德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -1049,31 +1028,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%88%B4%E7%B6%AD%C2%B7%E6%A2%AD%E7%BE%85</t>
   </si>
   <si>
-    <t>亨利·戴維·梭羅</t>
+    <t>亨利·戴维·梭罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A4%AB%C2%B7%E6%89%98%E7%88%BE%E6%96%AF%E6%B3%B0</t>
   </si>
   <si>
-    <t>列夫·托爾斯泰</t>
+    <t>列夫·托尔斯泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>反戰</t>
+    <t>反战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府工團主義</t>
+    <t>无政府工团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>公民社會主義</t>
+    <t>公民社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%94%BF%E4%B8%BB%E4%B9%89</t>
@@ -1085,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E9%BB%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>自由意志主義共和黨人</t>
+    <t>自由意志主义共和党人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -1109,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9%E8%80%85</t>
   </si>
   <si>
-    <t>保守主義者</t>
+    <t>保守主义者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E6%9D%8E%E5%98%89%E5%9B%BE</t>
@@ -1133,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
@@ -1157,9 +1136,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>资本主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
@@ -1193,15 +1169,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%98%8E%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>開明專制</t>
+    <t>开明专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%9C%BA</t>
   </si>
   <si>
-    <t>自由市场</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E5%8D%A1%E6%8B%89%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
@@ -1241,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E4%B8%BB%E4%B9%89</t>
@@ -1283,9 +1256,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>社会主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%9B%B8</t>
   </si>
   <si>
@@ -1343,9 +1313,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
   </si>
   <si>
-    <t>孟德斯鸠</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E7%B4%A2%E7%93%A6%C2%B7%E9%AD%81%E5%A5%88</t>
   </si>
   <si>
@@ -1415,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%96%A9%E9%9B%B7%C2%B7%E8%B2%9D%E5%8D%A1%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>切薩雷·貝卡里亞</t>
+    <t>切萨雷·贝卡里亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gaetano_Filangieri</t>
@@ -1523,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%91%9F%E5%A4%AB%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
   </si>
   <si>
-    <t>約瑟夫·布拉克</t>
+    <t>约瑟夫·布拉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E5%8C%85%E6%96%AF%E5%A8%81%E5%B0%94</t>
@@ -1547,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%93%88%E5%A5%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>法蘭西斯·哈奇森</t>
+    <t>法兰西斯·哈奇森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
@@ -1583,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%A2%85%E6%A3%AE</t>
   </si>
   <si>
-    <t>喬治·梅森</t>
+    <t>乔治·梅森</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2443,7 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>65</v>
@@ -2502,10 +2469,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -2531,10 +2498,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>36</v>
@@ -2560,10 +2527,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -2589,10 +2556,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -2618,10 +2585,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2647,10 +2614,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2676,10 +2643,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2705,10 +2672,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2734,10 +2701,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2763,10 +2730,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2792,10 +2759,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2821,10 +2788,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2850,10 +2817,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2879,10 +2846,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2908,10 +2875,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2937,10 +2904,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2966,10 +2933,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2995,10 +2962,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3024,10 +2991,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3053,10 +3020,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3082,10 +3049,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3111,10 +3078,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3140,10 +3107,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3169,10 +3136,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3198,10 +3165,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3227,10 +3194,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3256,10 +3223,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -3285,10 +3252,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3314,10 +3281,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3343,10 +3310,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3372,10 +3339,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -3401,10 +3368,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3430,10 +3397,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3459,10 +3426,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3488,10 +3455,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>9</v>
@@ -3517,10 +3484,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -3546,10 +3513,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" t="s">
         <v>71</v>
-      </c>
-      <c r="F56" t="s">
-        <v>72</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3575,10 +3542,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3604,10 +3571,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
         <v>18</v>
@@ -3633,10 +3600,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3662,10 +3629,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3691,10 +3658,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3720,10 +3687,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3749,10 +3716,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3778,10 +3745,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3807,10 +3774,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3836,10 +3803,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3865,10 +3832,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3894,10 +3861,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>35</v>
@@ -3923,10 +3890,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
@@ -3952,10 +3919,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3981,10 +3948,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -4010,10 +3977,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4039,10 +4006,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4068,10 +4035,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4097,10 +4064,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4126,10 +4093,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4155,10 +4122,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4184,10 +4151,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -4213,10 +4180,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4242,10 +4209,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4271,10 +4238,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" t="s">
         <v>57</v>
-      </c>
-      <c r="F81" t="s">
-        <v>58</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4300,10 +4267,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="G82" t="n">
         <v>7</v>
@@ -4329,10 +4296,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4358,10 +4325,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4387,10 +4354,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4416,10 +4383,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4445,10 +4412,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4474,10 +4441,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4503,10 +4470,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4532,10 +4499,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4561,10 +4528,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4590,10 +4557,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4648,10 +4615,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4677,10 +4644,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4706,10 +4673,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4735,10 +4702,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4764,10 +4731,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4793,10 +4760,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4822,10 +4789,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4851,10 +4818,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4880,10 +4847,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4909,10 +4876,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4938,10 +4905,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4967,10 +4934,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4996,10 +4963,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5025,10 +4992,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5054,10 +5021,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5083,10 +5050,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5112,10 +5079,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5141,10 +5108,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5170,10 +5137,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -5199,10 +5166,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5228,10 +5195,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5257,10 +5224,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F115" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G115" t="n">
         <v>17</v>
@@ -5286,10 +5253,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5315,10 +5282,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5344,10 +5311,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5373,10 +5340,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>10</v>
@@ -5402,10 +5369,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -5431,10 +5398,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5460,10 +5427,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -5489,10 +5456,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5518,10 +5485,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5547,10 +5514,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5576,10 +5543,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5605,10 +5572,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5634,10 +5601,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5663,10 +5630,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5692,10 +5659,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5721,10 +5688,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5750,10 +5717,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5779,10 +5746,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>84</v>
+      </c>
+      <c r="F133" t="s">
         <v>85</v>
-      </c>
-      <c r="F133" t="s">
-        <v>86</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5808,10 +5775,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5837,10 +5804,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5869,7 +5836,7 @@
         <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>48</v>
@@ -5895,10 +5862,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5924,10 +5891,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5953,10 +5920,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5982,10 +5949,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6011,10 +5978,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6040,10 +6007,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G142" t="n">
         <v>10</v>
@@ -6069,10 +6036,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G143" t="n">
         <v>41</v>
@@ -6098,10 +6065,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6127,10 +6094,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6185,10 +6152,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6214,10 +6181,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6243,10 +6210,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6272,10 +6239,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -6301,10 +6268,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6330,10 +6297,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6359,10 +6326,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6388,10 +6355,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F154" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6417,10 +6384,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6446,10 +6413,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6475,10 +6442,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6504,10 +6471,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6533,10 +6500,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6562,10 +6529,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6591,10 +6558,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6620,10 +6587,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6649,10 +6616,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6678,10 +6645,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6707,10 +6674,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6736,10 +6703,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6765,10 +6732,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6794,10 +6761,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6823,10 +6790,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6852,10 +6819,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6881,10 +6848,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6910,10 +6877,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6939,10 +6906,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6968,10 +6935,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6997,10 +6964,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7026,10 +6993,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7055,10 +7022,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7084,10 +7051,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7113,10 +7080,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7142,10 +7109,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7171,10 +7138,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7200,10 +7167,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7229,10 +7196,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7258,10 +7225,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7287,10 +7254,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7316,10 +7283,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7345,10 +7312,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7374,10 +7341,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7403,10 +7370,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7432,10 +7399,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7461,10 +7428,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7490,10 +7457,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7519,10 +7486,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F193" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7548,10 +7515,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F194" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="G194" t="n">
         <v>10</v>
@@ -7577,10 +7544,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="F195" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7606,10 +7573,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F196" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="G196" t="n">
         <v>6</v>
@@ -7635,10 +7602,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>70</v>
+      </c>
+      <c r="F197" t="s">
         <v>71</v>
-      </c>
-      <c r="F197" t="s">
-        <v>72</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7664,10 +7631,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7693,10 +7660,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7722,10 +7689,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G200" t="n">
         <v>4</v>
@@ -7751,10 +7718,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7780,10 +7747,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7809,10 +7776,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7838,10 +7805,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7867,10 +7834,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -7896,10 +7863,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7925,10 +7892,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7954,10 +7921,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7983,10 +7950,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G209" t="n">
         <v>18</v>
@@ -8012,10 +7979,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8041,10 +8008,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8070,10 +8037,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8099,10 +8066,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8128,10 +8095,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8157,10 +8124,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8186,10 +8153,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8215,10 +8182,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8244,10 +8211,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8273,10 +8240,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8302,10 +8269,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8331,10 +8298,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8360,10 +8327,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8389,10 +8356,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8418,10 +8385,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8447,10 +8414,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>227</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8476,10 +8443,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8505,10 +8472,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8534,10 +8501,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8563,10 +8530,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8592,10 +8559,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8621,10 +8588,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8650,10 +8617,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8679,10 +8646,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8708,10 +8675,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8737,10 +8704,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>59</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8766,10 +8733,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8795,10 +8762,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F237" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8824,10 +8791,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8853,10 +8820,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8882,10 +8849,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8911,10 +8878,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8940,10 +8907,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="F242" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8969,10 +8936,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="F243" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8998,10 +8965,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F244" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9027,10 +8994,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F245" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9056,10 +9023,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9085,10 +9052,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9114,10 +9081,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9143,10 +9110,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9172,10 +9139,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9201,10 +9168,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9230,10 +9197,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F252" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9259,10 +9226,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F253" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9288,10 +9255,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F254" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9317,10 +9284,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F255" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9346,10 +9313,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9375,10 +9342,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F257" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9404,10 +9371,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9433,10 +9400,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9462,10 +9429,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9491,10 +9458,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9520,10 +9487,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F262" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9549,10 +9516,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="F263" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9578,10 +9545,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9607,10 +9574,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F265" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9636,10 +9603,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9665,10 +9632,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F267" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9694,10 +9661,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>50</v>
+      </c>
+      <c r="F268" t="s">
         <v>51</v>
-      </c>
-      <c r="F268" t="s">
-        <v>52</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9723,10 +9690,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9752,10 +9719,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9781,10 +9748,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9810,10 +9777,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F272" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9839,10 +9806,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F273" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9868,10 +9835,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9897,10 +9864,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9926,10 +9893,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -9955,10 +9922,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F277" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
